--- a/CodeSystem-be-cs-temp-requested-service-detail.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service-detail.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-24T08:49:19+00:00</t>
+    <t>2023-02-02T07:53:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service-detail.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service-detail.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T09:12:07+00:00</t>
+    <t>2023-02-10T09:22:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service-detail.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service-detail.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T09:22:00+00:00</t>
+    <t>2023-02-10T15:47:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service-detail.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service-detail.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="176">
   <si>
     <t>Property</t>
   </si>
@@ -51,10 +51,13 @@
     <t>Experimental</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T15:47:03+00:00</t>
+    <t>2023-02-21T10:12:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -733,102 +736,104 @@
       <c r="A7" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -846,843 +851,843 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D41" s="2"/>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D44" s="2"/>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D47" s="2"/>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D48" s="2"/>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D49" s="2"/>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D50" s="2"/>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D51" s="2"/>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D52" s="2"/>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D53" s="2"/>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D54" s="2"/>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D55" s="2"/>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D56" s="2"/>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D57" s="2"/>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D58" s="2"/>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D59" s="2"/>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D60" s="2"/>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D61" s="2"/>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D62" s="2"/>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D63" s="2"/>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D64" s="2"/>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D65" s="2"/>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D66" s="2"/>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D67" s="2"/>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D68" s="2"/>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D69" s="2"/>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D70" s="2"/>
     </row>

--- a/CodeSystem-be-cs-temp-requested-service-detail.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service-detail.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T10:12:27+00:00</t>
+    <t>2023-02-21T10:12:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service-detail.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service-detail.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="104">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T10:12:31+00:00</t>
+    <t>2023-02-21T11:12:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>69</t>
+    <t>33</t>
   </si>
   <si>
     <t>Level</t>
@@ -165,42 +165,6 @@
     <t>Nomenclature art.8</t>
   </si>
   <si>
-    <t>tmp-sput-utum-6</t>
-  </si>
-  <si>
-    <t>Sputum</t>
-  </si>
-  <si>
-    <t>tmp-urin-rine-5</t>
-  </si>
-  <si>
-    <t>Urine</t>
-  </si>
-  <si>
-    <t>tmp-bloo-lood-5</t>
-  </si>
-  <si>
-    <t>Blood</t>
-  </si>
-  <si>
-    <t>tmp-faec-eces-6</t>
-  </si>
-  <si>
-    <t>Faeces</t>
-  </si>
-  <si>
-    <t>tmp-woun-luid-1</t>
-  </si>
-  <si>
-    <t>Wound fluid</t>
-  </si>
-  <si>
-    <t>tmp-nasa-luid-1</t>
-  </si>
-  <si>
-    <t>Nasal fluid</t>
-  </si>
-  <si>
     <t>tmp-othe-hers-6</t>
   </si>
   <si>
@@ -231,24 +195,6 @@
     <t>Observation/evaluation of the patient's condition (movement, feeling of limbs)</t>
   </si>
   <si>
-    <t>tmp-pain-core-6</t>
-  </si>
-  <si>
-    <t>Pain evaluation: VAS score</t>
-  </si>
-  <si>
-    <t>tmp-cath-kage-6</t>
-  </si>
-  <si>
-    <t>Catheter inspection: prevention of infection, dislocation, leakage</t>
-  </si>
-  <si>
-    <t>tmp-chec-oint-1</t>
-  </si>
-  <si>
-    <t>Check insertion point</t>
-  </si>
-  <si>
     <t>tmp-chan-sary-9</t>
   </si>
   <si>
@@ -297,78 +243,6 @@
     <t>Report at least weekly if necessary</t>
   </si>
   <si>
-    <t>tmp-lyin-sure-0</t>
-  </si>
-  <si>
-    <t>Lying blood pressure</t>
-  </si>
-  <si>
-    <t>tmp-bloo-ding-3</t>
-  </si>
-  <si>
-    <t>Blood pressure standing</t>
-  </si>
-  <si>
-    <t>tmp-hear-rate-0</t>
-  </si>
-  <si>
-    <t>Heart rate</t>
-  </si>
-  <si>
-    <t>tmp-oxyg-tion-7</t>
-  </si>
-  <si>
-    <t>Oxygen saturation</t>
-  </si>
-  <si>
-    <t>tmp-temp-ture-1</t>
-  </si>
-  <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>tmp-resp-rate-6</t>
-  </si>
-  <si>
-    <t>Respiratory rate</t>
-  </si>
-  <si>
-    <t>tmp-bowe-ency-5</t>
-  </si>
-  <si>
-    <t>Bowel frequency</t>
-  </si>
-  <si>
-    <t>tmp-weig-ight-6</t>
-  </si>
-  <si>
-    <t>Weight</t>
-  </si>
-  <si>
-    <t>tmp-diur-esis-8</t>
-  </si>
-  <si>
-    <t>Diuresis</t>
-  </si>
-  <si>
-    <t>tmp-visu-cale-4</t>
-  </si>
-  <si>
-    <t>Visual analog pain scale</t>
-  </si>
-  <si>
-    <t>tmp-type-pain-2</t>
-  </si>
-  <si>
-    <t>type of pain</t>
-  </si>
-  <si>
-    <t>tmp-cont-ents-3</t>
-  </si>
-  <si>
-    <t>Control bowel movements</t>
-  </si>
-  <si>
     <t>tmp-char-type-1</t>
   </si>
   <si>
@@ -417,96 +291,18 @@
     <t>Huber point needle type</t>
   </si>
   <si>
-    <t>tmp-clea-ound-7</t>
-  </si>
-  <si>
-    <t>cleaning of wound</t>
-  </si>
-  <si>
-    <t>tmp-appl-duct-2</t>
-  </si>
-  <si>
-    <t>application of product</t>
-  </si>
-  <si>
-    <t>tmp-appl-rial-0</t>
-  </si>
-  <si>
-    <t>apply cover material</t>
-  </si>
-  <si>
-    <t>tmp-appl-rial-3</t>
-  </si>
-  <si>
-    <t>apply fixation material</t>
-  </si>
-  <si>
     <t>tmp-prot-dges-5</t>
   </si>
   <si>
     <t>protection of wound edges</t>
   </si>
   <si>
-    <t>tmp-supe-ship-4</t>
-  </si>
-  <si>
-    <t>supervision relationship</t>
-  </si>
-  <si>
-    <t>tmp-dres-ange-5</t>
-  </si>
-  <si>
-    <t>dressing change</t>
-  </si>
-  <si>
-    <t>tmp-dry0-sing-0</t>
-  </si>
-  <si>
-    <t>dry aseptic dressing</t>
-  </si>
-  <si>
-    <t>tmp-debr-ound-3</t>
-  </si>
-  <si>
-    <t>debride wound</t>
-  </si>
-  <si>
-    <t>tmp-nega-rapy-5</t>
-  </si>
-  <si>
-    <t>negative pressure therapy</t>
-  </si>
-  <si>
-    <t>tmp-remo-ages-9</t>
-  </si>
-  <si>
-    <t>remove stitches in two stages</t>
-  </si>
-  <si>
-    <t>tmp-remo-tage-7</t>
-  </si>
-  <si>
-    <t>remove sutures in one stage</t>
-  </si>
-  <si>
     <t>tmp-shor-wick-2</t>
   </si>
   <si>
     <t>shorten wick</t>
   </si>
   <si>
-    <t>tmp-repl-wick-2</t>
-  </si>
-  <si>
-    <t>replace wick</t>
-  </si>
-  <si>
-    <t>tmp-supe-tion-9</t>
-  </si>
-  <si>
-    <t>supervised drain with suction</t>
-  </si>
-  <si>
     <t>tmp-supe-tion-2</t>
   </si>
   <si>
@@ -519,22 +315,10 @@
     <t>specific instructions</t>
   </si>
   <si>
-    <t>tmp-shor-etch-3</t>
-  </si>
-  <si>
-    <t>short stretch</t>
-  </si>
-  <si>
     <t>tmp-long-etch-2</t>
   </si>
   <si>
     <t>long stretch</t>
-  </si>
-  <si>
-    <t>tmp-knee-king-3</t>
-  </si>
-  <si>
-    <t>knee stocking</t>
   </si>
   <si>
     <t>tmp-long-king-3</t>
@@ -843,7 +627,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1259,438 +1043,6 @@
       </c>
       <c r="D34" s="2"/>
     </row>
-    <row r="35">
-      <c r="A35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="C35" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="C36" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="C38" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="D38" s="2"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="C39" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="D39" s="2"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="C40" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="D40" s="2"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="C41" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="D41" s="2"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="D42" s="2"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="C43" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="D43" s="2"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="C44" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="D44" s="2"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="C45" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="D45" s="2"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="C46" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="D46" s="2"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="D47" s="2"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="D48" s="2"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C49" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="D49" s="2"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="C50" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="D50" s="2"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="C51" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="D51" s="2"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="C52" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="D52" s="2"/>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="C53" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="D53" s="2"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="C54" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="D54" s="2"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="C55" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="D55" s="2"/>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="D56" s="2"/>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="C57" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="D57" s="2"/>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="C58" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="D58" s="2"/>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="C59" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="D59" s="2"/>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="C60" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="D60" s="2"/>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="C61" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="D61" s="2"/>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="C62" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="D62" s="2"/>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="C63" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="D63" s="2"/>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="C64" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="D64" s="2"/>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="C65" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="D65" s="2"/>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="C66" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="D66" s="2"/>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="C67" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="D67" s="2"/>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="C68" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="D68" s="2"/>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="C69" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="D69" s="2"/>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="C70" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="D70" s="2"/>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/CodeSystem-be-cs-temp-requested-service-detail.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service-detail.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T11:12:28+00:00</t>
+    <t>2023-02-21T11:12:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service-detail.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service-detail.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T11:12:51+00:00</t>
+    <t>2023-02-22T15:46:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service-detail.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service-detail.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T15:46:17+00:00</t>
+    <t>2023-03-10T07:39:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service-detail.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service-detail.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T07:39:36+00:00</t>
+    <t>2023-03-17T13:10:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service-detail.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service-detail.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-17T13:10:55+00:00</t>
+    <t>2023-03-17T13:11:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service-detail.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service-detail.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-17T13:11:04+00:00</t>
+    <t>2023-04-19T13:59:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service-detail.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service-detail.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-19T13:59:03+00:00</t>
+    <t>2023-04-20T18:37:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service-detail.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service-detail.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-20T18:37:34+00:00</t>
+    <t>2023-04-20T18:38:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service-detail.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service-detail.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-20T18:38:40+00:00</t>
+    <t>2023-04-20T18:40:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service-detail.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service-detail.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-20T18:40:27+00:00</t>
+    <t>2023-04-20T19:18:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service-detail.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service-detail.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-20T19:18:44+00:00</t>
+    <t>2023-04-20T19:23:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service-detail.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service-detail.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-20T19:23:54+00:00</t>
+    <t>2023-04-20T19:43:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service-detail.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service-detail.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-20T19:43:11+00:00</t>
+    <t>2023-04-21T10:15:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service-detail.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service-detail.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T10:15:27+00:00</t>
+    <t>2023-04-21T14:28:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service-detail.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service-detail.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T14:28:50+00:00</t>
+    <t>2023-04-21T14:29:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service-detail.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service-detail.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T14:29:36+00:00</t>
+    <t>2023-04-21T14:42:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service-detail.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service-detail.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T14:42:15+00:00</t>
+    <t>2023-04-21T14:42:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service-detail.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service-detail.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T14:42:33+00:00</t>
+    <t>2023-04-21T14:55:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service-detail.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service-detail.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T14:55:14+00:00</t>
+    <t>2023-04-21T14:56:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service-detail.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service-detail.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T14:56:41+00:00</t>
+    <t>2023-04-25T13:57:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service-detail.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service-detail.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-25T13:57:38+00:00</t>
+    <t>2023-04-28T07:14:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service-detail.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service-detail.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T07:14:58+00:00</t>
+    <t>2023-04-28T10:20:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service-detail.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service-detail.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T10:20:31+00:00</t>
+    <t>2023-04-28T10:21:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service-detail.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service-detail.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T10:21:40+00:00</t>
+    <t>2023-05-15T08:38:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service-detail.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service-detail.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="86">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-15T08:38:34+00:00</t>
+    <t>2023-05-15T10:07:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>33</t>
+    <t>24</t>
   </si>
   <si>
     <t>Level</t>
@@ -129,18 +129,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>tmp-nurs-osis-7</t>
-  </si>
-  <si>
-    <t>Nursing diagnosis</t>
-  </si>
-  <si>
-    <t>tmp-medi-list-0</t>
-  </si>
-  <si>
-    <t>Medical diagnosis problem list</t>
-  </si>
-  <si>
     <t>tmp-with-tion-7</t>
   </si>
   <si>
@@ -153,142 +141,10 @@
     <t>Within progression</t>
   </si>
   <si>
-    <t>tmp-with-cess-9</t>
-  </si>
-  <si>
-    <t>Within care process</t>
-  </si>
-  <si>
-    <t>tmp-nome-rt.8-8</t>
-  </si>
-  <si>
-    <t>Nomenclature art.8</t>
-  </si>
-  <si>
-    <t>tmp-othe-hers-6</t>
-  </si>
-  <si>
-    <t>Others</t>
-  </si>
-  <si>
-    <t>tmp-natu-ype)-1</t>
-  </si>
-  <si>
-    <t>Nature of drug (type)</t>
-  </si>
-  <si>
-    <t>tmp-post-tive-3</t>
-  </si>
-  <si>
-    <t>postoperative</t>
-  </si>
-  <si>
-    <t>tmp-preo-vely-4</t>
-  </si>
-  <si>
-    <t>preoperatively</t>
-  </si>
-  <si>
-    <t>tmp-obse-mbs)-8</t>
-  </si>
-  <si>
-    <t>Observation/evaluation of the patient's condition (movement, feeling of limbs)</t>
-  </si>
-  <si>
-    <t>tmp-chan-sary-9</t>
-  </si>
-  <si>
-    <t>Change dressings if necessary</t>
-  </si>
-  <si>
-    <t>tmp-chec-rate-4</t>
-  </si>
-  <si>
-    <t>Check pump operation and flow rate</t>
-  </si>
-  <si>
-    <t>tmp-cont-uses-1</t>
-  </si>
-  <si>
-    <t>Control extra boluses</t>
-  </si>
-  <si>
-    <t>tmp-adju-dule-3</t>
-  </si>
-  <si>
-    <t>Adjust dose according to schedule</t>
-  </si>
-  <si>
-    <t>tmp-chan-eded-7</t>
-  </si>
-  <si>
-    <t>Change medication reservoir as needed</t>
-  </si>
-  <si>
-    <t>tmp-addi-sary-9</t>
-  </si>
-  <si>
-    <t>Additional visit if necessary</t>
-  </si>
-  <si>
-    <t>tmp-rest-sary-2</t>
-  </si>
-  <si>
-    <t>Restart after alarm if necessary</t>
-  </si>
-  <si>
-    <t>tmp-repo-sary-5</t>
-  </si>
-  <si>
-    <t>Report at least weekly if necessary</t>
-  </si>
-  <si>
-    <t>tmp-char-type-1</t>
-  </si>
-  <si>
-    <t>Charriere aspiration probe type</t>
-  </si>
-  <si>
-    <t>tmp-thro-nula-1</t>
-  </si>
-  <si>
-    <t>through nasal cannula</t>
-  </si>
-  <si>
-    <t>tmp-thro-mask-8</t>
-  </si>
-  <si>
-    <t>through nasal mask</t>
-  </si>
-  <si>
-    <t>tmp-thro-tube-4</t>
-  </si>
-  <si>
-    <t>through nasogastric tube</t>
-  </si>
-  <si>
-    <t>tmp-inte-nula-6</t>
-  </si>
-  <si>
-    <t>internal cannula</t>
-  </si>
-  <si>
-    <t>tmp-exte-nula-6</t>
-  </si>
-  <si>
-    <t>external cannula</t>
-  </si>
-  <si>
-    <t>tmp-type-iere-4</t>
-  </si>
-  <si>
-    <t>type charriere</t>
-  </si>
-  <si>
-    <t>tmp-hube-type-3</t>
-  </si>
-  <si>
-    <t>Huber point needle type</t>
+    <t>tmp-with-tory-8</t>
+  </si>
+  <si>
+    <t>Without trajectory</t>
   </si>
   <si>
     <t>tmp-prot-dges-5</t>
@@ -300,7 +156,7 @@
     <t>tmp-shor-wick-2</t>
   </si>
   <si>
-    <t>shorten wick</t>
+    <t>Shorten wick</t>
   </si>
   <si>
     <t>tmp-supe-tion-2</t>
@@ -309,22 +165,112 @@
     <t>supervised drain without suction</t>
   </si>
   <si>
-    <t>tmp-spec-ions-1</t>
-  </si>
-  <si>
-    <t>specific instructions</t>
-  </si>
-  <si>
-    <t>tmp-long-etch-2</t>
-  </si>
-  <si>
-    <t>long stretch</t>
-  </si>
-  <si>
-    <t>tmp-long-king-3</t>
-  </si>
-  <si>
-    <t>long stocking</t>
+    <t>tmp-for0-tion-6</t>
+  </si>
+  <si>
+    <t>For insulin administration</t>
+  </si>
+  <si>
+    <t>tmp-for0-tion-9</t>
+  </si>
+  <si>
+    <t>For medication administration</t>
+  </si>
+  <si>
+    <t>tmp-glyc-file-0</t>
+  </si>
+  <si>
+    <t>Glycemic day profile</t>
+  </si>
+  <si>
+    <t>tmp-bolu-very-5</t>
+  </si>
+  <si>
+    <t>bolus medication delivery</t>
+  </si>
+  <si>
+    <t>tmp-medi-tion-8</t>
+  </si>
+  <si>
+    <t>medication administration via dilution</t>
+  </si>
+  <si>
+    <t>tmp-supr-0tip-7</t>
+  </si>
+  <si>
+    <t>Suprapubic bladder care insertion tip</t>
+  </si>
+  <si>
+    <t>tmp-supr-ring-4</t>
+  </si>
+  <si>
+    <t>Suprapubic bladder tube monitoring</t>
+  </si>
+  <si>
+    <t>tmp-educ-ight-0</t>
+  </si>
+  <si>
+    <t>Education to insight</t>
+  </si>
+  <si>
+    <t>tmp-guid-care-5</t>
+  </si>
+  <si>
+    <t>Guidance if not self-care</t>
+  </si>
+  <si>
+    <t>tmp-foll-tion-5</t>
+  </si>
+  <si>
+    <t>Follow-up after education</t>
+  </si>
+  <si>
+    <t>tmp-foll-care-7</t>
+  </si>
+  <si>
+    <t>Follow-up of the patient who does not switch to self-care</t>
+  </si>
+  <si>
+    <t>tmp-star-nist-0</t>
+  </si>
+  <si>
+    <t>Start insulin or GLP 1 agonist</t>
+  </si>
+  <si>
+    <t>tmp-addi-&gt;7.5-0</t>
+  </si>
+  <si>
+    <t>Additional education HBA1C&gt;7.5</t>
+  </si>
+  <si>
+    <t>tmp-addi-ions-3</t>
+  </si>
+  <si>
+    <t>Additional education switching from 1 to 2 injections</t>
+  </si>
+  <si>
+    <t>tmp-educ-tion-0</t>
+  </si>
+  <si>
+    <t>Education in patients on oral medication</t>
+  </si>
+  <si>
+    <t>tmp-educ-rial-8</t>
+  </si>
+  <si>
+    <t>Education material</t>
+  </si>
+  <si>
+    <t>tmp-grou-sion-3</t>
+  </si>
+  <si>
+    <t>Group session</t>
+  </si>
+  <si>
+    <t>tmp-indi-sion-8</t>
+  </si>
+  <si>
+    <t>Individual session</t>
   </si>
 </sst>
 </file>
@@ -627,7 +573,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -935,114 +881,6 @@
       </c>
       <c r="D25" s="2"/>
     </row>
-    <row r="26">
-      <c r="A26" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="C28" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="C30" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="C34" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="D34" s="2"/>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/CodeSystem-be-cs-temp-requested-service-detail.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service-detail.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-15T10:07:26+00:00</t>
+    <t>2023-05-15T10:09:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service-detail.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service-detail.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-15T10:09:56+00:00</t>
+    <t>2023-05-16T06:48:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service-detail.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service-detail.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-16T06:48:43+00:00</t>
+    <t>2023-06-06T07:33:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service-detail.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service-detail.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-06T07:33:19+00:00</t>
+    <t>2023-06-06T07:37:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service-detail.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service-detail.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-06T07:37:43+00:00</t>
+    <t>2023-06-06T07:38:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service-detail.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service-detail.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-06T07:38:08+00:00</t>
+    <t>2023-06-06T07:41:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service-detail.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service-detail.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-06T07:41:53+00:00</t>
+    <t>2023-06-06T07:45:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service-detail.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service-detail.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-06T07:45:21+00:00</t>
+    <t>2023-06-08T08:30:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service-detail.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service-detail.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-08T08:30:17+00:00</t>
+    <t>2023-06-08T08:31:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service-detail.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service-detail.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-08T08:31:26+00:00</t>
+    <t>2023-06-14T06:47:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -392,10 +392,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/CodeSystem-be-cs-temp-requested-service-detail.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service-detail.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-14T06:47:29+00:00</t>
+    <t>2023-08-28T15:26:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service-detail.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service-detail.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-28T15:26:36+00:00</t>
+    <t>2023-08-28T15:28:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service-detail.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service-detail.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-28T15:28:15+00:00</t>
+    <t>2023-09-01T06:47:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service-detail.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service-detail.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T06:47:50+00:00</t>
+    <t>2023-09-05T14:28:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service-detail.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service-detail.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-05T14:28:58+00:00</t>
+    <t>2023-09-29T14:04:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service-detail.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service-detail.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-29T14:04:57+00:00</t>
+    <t>2023-09-29T14:06:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service-detail.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service-detail.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-29T14:06:01+00:00</t>
+    <t>2023-09-29T14:14:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service-detail.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service-detail.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-29T14:14:49+00:00</t>
+    <t>2023-09-29T14:15:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service-detail.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service-detail.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-29T14:15:09+00:00</t>
+    <t>2024-03-15T09:11:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service-detail.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service-detail.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-15T09:11:04+00:00</t>
+    <t>2024-03-15T09:12:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service-detail.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service-detail.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-15T09:12:22+00:00</t>
+    <t>2024-09-24T14:40:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service-detail.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service-detail.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T14:40:03+00:00</t>
+    <t>2024-09-24T14:41:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service-detail.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service-detail.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T14:41:18+00:00</t>
+    <t>2024-09-24T14:42:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
